--- a/src/test/resources/kas/excel/TestConfigPoints.xlsx
+++ b/src/test/resources/kas/excel/TestConfigPoints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F729C4-42EF-419A-9466-08D36C77E0BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E32D8-4F32-4BA9-96C1-D049E8BFDC65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>286</t>
+  </si>
+  <si>
+    <t>Fade Time</t>
+  </si>
+  <si>
+    <t>Controller Register</t>
+  </si>
+  <si>
+    <t>Controller Register:</t>
   </si>
 </sst>
 </file>
@@ -834,11 +843,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,7 +858,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -857,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -865,7 +874,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -873,80 +882,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="12">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{223F74B7-0392-4C46-9D64-7C685346A9DB}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ADDB-8B41-479B-8360-24D6254CD3BF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +986,7 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -965,7 +994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -973,7 +1002,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -981,80 +1010,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="12">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11218953-FA0D-49FE-911B-9B3F6BC1BC92}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1115,7 @@
     <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1082,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1090,66 +1139,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="12">
+        <v>787</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="F7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>287</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>287</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{71379AFE-628E-44A1-A0B2-04050D602843}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D1048576" xr:uid="{71379AFE-628E-44A1-A0B2-04050D602843}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/kas/excel/TestConfigPoints.xlsx
+++ b/src/test/resources/kas/excel/TestConfigPoints.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E32D8-4F32-4BA9-96C1-D049E8BFDC65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319CB141-0B6D-4ADC-8FD9-68A8807AA3C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTION" sheetId="2" r:id="rId1"/>
-    <sheet name="SETTINGS" sheetId="6" r:id="rId2"/>
-    <sheet name="PATTERN" sheetId="1" r:id="rId3"/>
-    <sheet name="Нормальный" sheetId="4" r:id="rId4"/>
-    <sheet name="Криворукий" sheetId="5" r:id="rId5"/>
+    <sheet name="PATTERN" sheetId="1" r:id="rId2"/>
+    <sheet name="Нормальный" sheetId="4" r:id="rId3"/>
+    <sheet name="Криворукий" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="диммирование">DESCRIPTION!$C$16:$C$17</definedName>
+    <definedName name="диммирование">DESCRIPTION!$I$2:$I$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
-  <si>
-    <t>Номер помещения</t>
-  </si>
-  <si>
-    <t>Электрическая группа</t>
-  </si>
-  <si>
-    <t>Номер группы Helvar</t>
-  </si>
-  <si>
-    <t>Диммирование</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>2.15</t>
   </si>
@@ -65,42 +52,12 @@
     <t>Принципы успешной работы с файлом:</t>
   </si>
   <si>
-    <t>Не менять лист "Описание" - ни название, ни содиржание, никак</t>
-  </si>
-  <si>
-    <t>Листы в книге:</t>
-  </si>
-  <si>
-    <t>Каждый лист (кроме описания) создается отдельно для каждого контроллера Helvar</t>
-  </si>
-  <si>
-    <t>Книга может содержать только лист "Описание" и листы с информацией по контроллерам, никаких других листов</t>
-  </si>
-  <si>
-    <t>Лист с описанием обязательно должен быть назван "Описание", для прочих листов название и порядок неважно</t>
-  </si>
-  <si>
-    <t>Листы с описание контроллеров:</t>
-  </si>
-  <si>
-    <t>Для каждого контроллера Helvar должен быть создан отдельный лист с его описанием</t>
-  </si>
-  <si>
-    <t>В описании должна быть только информация по конкретному контроллеру</t>
-  </si>
-  <si>
-    <t>Формат задан на листе "Шаблон", строго придерживаться шаблона</t>
-  </si>
-  <si>
     <t>ЩО-2.1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Содержания таблицы с данными по контроллеру:</t>
-  </si>
-  <si>
     <t>10.119.140.86</t>
   </si>
   <si>
@@ -152,53 +109,6 @@
     <t>Значение для группы освещения с диммированием:</t>
   </si>
   <si>
-    <t>DEVICE_ID</t>
-  </si>
-  <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>BMS server</t>
-  </si>
-  <si>
-    <t>BROADCAST_IP</t>
-  </si>
-  <si>
-    <t>192.168.1.255</t>
-  </si>
-  <si>
-    <t>SUBNET_IP</t>
-  </si>
-  <si>
-    <t>192.168.1.0</t>
-  </si>
-  <si>
-    <t>LOCAL_IP</t>
-  </si>
-  <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
-    <t>NETWORK_LENGTH</t>
-  </si>
-  <si>
-    <t>Параметр</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Значение</t>
-  </si>
-  <si>
-    <t>IP BACnet устройства
-- не должен совпадать с другими BACnet устройствами, в том числе сервер ESBO</t>
-  </si>
-  <si>
-    <t>Маска подсети
-- 24 = 255.255.255.0</t>
-  </si>
-  <si>
     <t>IP port Helvar controller:</t>
   </si>
   <si>
@@ -218,13 +128,85 @@
   </si>
   <si>
     <t>Controller Register:</t>
+  </si>
+  <si>
+    <t>Не менять название листов "DESCRIPTION" и "PATTERN" - иначе всё сломается</t>
+  </si>
+  <si>
+    <t>Для каждого контроллера создавать свой лист с группами освещения:</t>
+  </si>
+  <si>
+    <t>Копируем "PATTERN" и переименовываем, название может быть любым, кроме "DESCRIPTION" и "PATTERN"</t>
+  </si>
+  <si>
+    <t>Изменяем параметры на новом листе:</t>
+  </si>
+  <si>
+    <t>2,2,1</t>
+  </si>
+  <si>
+    <t>IP Helvar controller - IP адресс контроллера Helvar</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t>IP port Helvar controller - Порт контроллера Helvar</t>
+  </si>
+  <si>
+    <t>2,2,3</t>
+  </si>
+  <si>
+    <t>Light panel - Название щита управления освещением, фактически - место установки контроллера для идентификации</t>
+  </si>
+  <si>
+    <t>2,2,4</t>
+  </si>
+  <si>
+    <t>Controller Register - BACnet регистр точки данных с сетевым статусом контроллера Helvar, должен быть уникальным и отличаться от номеров групп на всех контроллерах</t>
+  </si>
+  <si>
+    <t>2,2,5</t>
+  </si>
+  <si>
+    <t>Столбец Helvar group number - уникальный номер группы освещения, преднастроенный в Helvar, только числовое значение</t>
+  </si>
+  <si>
+    <t>2,2,6</t>
+  </si>
+  <si>
+    <t>Столбец Room number - Номер помещения, в котором управляется освещение с данной группы, может быть любым, используется для добавления описания BACnet регистра</t>
+  </si>
+  <si>
+    <t>2,2,7</t>
+  </si>
+  <si>
+    <t>Столбец Electric group - Номер электрической группы по проекту, может быть любое значение, используется для добавления описания BACnet регистра</t>
+  </si>
+  <si>
+    <t>2,2,8</t>
+  </si>
+  <si>
+    <t>Столбец Dimming - используется для формирования переменных Consumption и Direct Level, true - создает переменные, false - не создает</t>
+  </si>
+  <si>
+    <t>2,2,9</t>
+  </si>
+  <si>
+    <t>Столбец Fade Time - Скорость диммирования и перехода от сцены к сцене (плавный переход для диммируемых групп), задается числом в милисекундах. (т.е. 200 милисекунд = 2 секундам)</t>
+  </si>
+  <si>
+    <t>Этот файл должен лежать рядом (в одной папке) с файлом запускающим программу (.jar)</t>
+  </si>
+  <si>
+    <t>Это не трогать:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,24 +223,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6897BB"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -276,11 +240,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,32 +318,40 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -598,250 +632,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14F4530-1CB1-47A3-A5F9-4B37BAF8B87E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="72.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="1">
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2.1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="1">
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>4.5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CDFA8A-559C-43F7-9A1E-456ACC5EE043}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="10">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="11">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -850,7 +806,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -858,101 +814,101 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="12">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="12">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
         <v>787</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>200</v>
@@ -969,7 +925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ADDB-8B41-479B-8360-24D6254CD3BF}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -978,7 +934,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -986,101 +942,101 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="12">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="12">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6">
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>200</v>
@@ -1097,16 +1053,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11218953-FA0D-49FE-911B-9B3F6BC1BC92}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
@@ -1115,106 +1071,106 @@
     <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6">
+        <v>787</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="12">
-        <v>787</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>287</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>100</v>
